--- a/pensum_copy2.xlsx
+++ b/pensum_copy2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neno/Documents/TransiciónCDAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DEBF8B-D633-B74A-8A31-217556475022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FEB4EB-5FA8-6342-A9FE-D6A343E15C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="28540" windowHeight="19720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4780" yWindow="1820" windowWidth="28540" windowHeight="19720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIENCIA DE DATOS 2024" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="181">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -138,24 +138,15 @@
     <t>D02A</t>
   </si>
   <si>
-    <t>ISCO-C01A</t>
-  </si>
-  <si>
     <t>H03A</t>
   </si>
   <si>
     <t>CONSTITUCIÓN POLÍTICA</t>
   </si>
   <si>
-    <t>CHUL-LE1A</t>
-  </si>
-  <si>
     <t>M05A</t>
   </si>
   <si>
-    <t>CBAS-M02A</t>
-  </si>
-  <si>
     <t>CBAS-M03A</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
     <t>ELECTIVA DE HUMANIDADES I</t>
   </si>
   <si>
-    <t>CHUL-LE2A</t>
-  </si>
-  <si>
     <t>M06A</t>
   </si>
   <si>
@@ -225,9 +213,6 @@
     <t>ELECTIVA DE HUMANIDADES II</t>
   </si>
   <si>
-    <t>CHUL-LE3A</t>
-  </si>
-  <si>
     <t>CBAS-M06A</t>
   </si>
   <si>
@@ -243,15 +228,9 @@
     <t>ALGORITMOS Y COMPLEJIDAD</t>
   </si>
   <si>
-    <t>ISCO-C03A</t>
-  </si>
-  <si>
     <t>CIUDADANÍA GLOBAL</t>
   </si>
   <si>
-    <t>CHUL-LE4A</t>
-  </si>
-  <si>
     <t>D05A</t>
   </si>
   <si>
@@ -267,9 +246,6 @@
     <t>PROCESOS ESTOCÁSTICOS</t>
   </si>
   <si>
-    <t>IIND-R01A</t>
-  </si>
-  <si>
     <t>ELECTIVA COMPLEMENTARIA II</t>
   </si>
   <si>
@@ -528,9 +504,6 @@
     <t>M02B</t>
   </si>
   <si>
-    <t>AEMP-G01A</t>
-  </si>
-  <si>
     <t>C06B</t>
   </si>
   <si>
@@ -595,6 +568,18 @@
   </si>
   <si>
     <t>CBAS-M01B</t>
+  </si>
+  <si>
+    <t>ISCO-C02A</t>
+  </si>
+  <si>
+    <t>CHUL-I04A</t>
+  </si>
+  <si>
+    <t>IIND-R02A</t>
+  </si>
+  <si>
+    <t>AEMP-G01B</t>
   </si>
 </sst>
 </file>
@@ -849,7 +834,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -967,7 +952,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -994,7 +979,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1021,13 +1006,13 @@
         <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(D6,"-",E6)</f>
         <v>ECON-I01A</v>
       </c>
     </row>
@@ -1045,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -1102,7 +1087,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1129,7 +1114,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1159,7 +1144,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1183,10 +1168,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1213,13 +1198,13 @@
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -1240,10 +1225,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1267,16 +1252,16 @@
         <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -1297,19 +1282,19 @@
         <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -1330,16 +1315,16 @@
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -1360,16 +1345,16 @@
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
@@ -1393,19 +1378,19 @@
         <v>24</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
@@ -1426,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1453,16 +1438,16 @@
         <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
@@ -1483,16 +1468,16 @@
         <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -1513,16 +1498,16 @@
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
@@ -1546,13 +1531,13 @@
         <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
         <v>29</v>
@@ -1576,16 +1561,16 @@
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -1606,16 +1591,16 @@
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
@@ -1636,10 +1621,10 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1663,16 +1648,16 @@
         <v>28</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
@@ -1693,16 +1678,16 @@
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -1726,7 +1711,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1747,19 +1732,19 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
@@ -1780,16 +1765,16 @@
         <v>24</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
@@ -1810,10 +1795,10 @@
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1837,16 +1822,16 @@
         <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" ref="J34:J52" si="1">_xlfn.CONCAT(D34,"-",E34)</f>
@@ -1867,19 +1852,19 @@
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
@@ -1897,22 +1882,22 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="1"/>
@@ -1933,10 +1918,10 @@
         <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -1960,19 +1945,19 @@
         <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="1"/>
@@ -1993,16 +1978,16 @@
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="1"/>
@@ -2023,10 +2008,10 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -2050,19 +2035,19 @@
         <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="1"/>
@@ -2083,16 +2068,16 @@
         <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="1"/>
@@ -2113,10 +2098,10 @@
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -2140,16 +2125,16 @@
         <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G44">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="1"/>
@@ -2170,16 +2155,16 @@
         <v>22</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="1"/>
@@ -2197,13 +2182,13 @@
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -2227,16 +2212,16 @@
         <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="1"/>
@@ -2257,16 +2242,16 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="1"/>
@@ -2287,10 +2272,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -2314,16 +2299,16 @@
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="1"/>
@@ -2344,10 +2329,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G51">
         <v>9</v>
@@ -2371,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -2400,7 +2385,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2447,10 +2432,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2459,10 +2444,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -2474,10 +2459,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2501,10 +2486,10 @@
     </row>
     <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2513,10 +2498,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
@@ -2528,10 +2513,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2543,7 +2528,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -2555,10 +2540,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2570,7 +2555,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -2582,10 +2567,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2597,7 +2582,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -2609,10 +2594,10 @@
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2621,16 +2606,16 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
@@ -2639,10 +2624,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2654,7 +2639,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2666,22 +2651,22 @@
     </row>
     <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1">
         <v>0.5</v>
@@ -2693,10 +2678,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2705,10 +2690,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -2720,10 +2705,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2735,7 +2720,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -2747,10 +2732,10 @@
     </row>
     <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2759,16 +2744,16 @@
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -2777,10 +2762,10 @@
     </row>
     <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2789,10 +2774,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -2804,10 +2789,10 @@
     </row>
     <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2816,16 +2801,16 @@
         <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -2834,28 +2819,28 @@
     </row>
     <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G16" s="1">
         <v>0.5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -2864,10 +2849,10 @@
     </row>
     <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2876,19 +2861,19 @@
         <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G17" s="1">
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -2897,10 +2882,10 @@
     </row>
     <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -2909,16 +2894,16 @@
         <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
@@ -2927,10 +2912,10 @@
     </row>
     <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -2939,16 +2924,16 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
@@ -2957,10 +2942,10 @@
     </row>
     <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2969,10 +2954,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -2984,10 +2969,10 @@
     </row>
     <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2996,16 +2981,16 @@
         <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G21" s="1">
         <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
@@ -3014,10 +2999,10 @@
     </row>
     <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -3026,16 +3011,16 @@
         <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G22" s="1">
         <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -3044,10 +3029,10 @@
     </row>
     <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -3056,16 +3041,16 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
@@ -3074,10 +3059,10 @@
     </row>
     <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -3086,16 +3071,16 @@
         <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G24" s="1">
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
@@ -3104,10 +3089,10 @@
     </row>
     <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -3116,16 +3101,16 @@
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1">
         <v>3</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -3134,10 +3119,10 @@
     </row>
     <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -3146,10 +3131,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -3161,10 +3146,10 @@
     </row>
     <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -3173,16 +3158,16 @@
         <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
@@ -3191,10 +3176,10 @@
     </row>
     <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -3203,10 +3188,10 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -3218,10 +3203,10 @@
     </row>
     <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -3230,19 +3215,19 @@
         <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G29" s="1">
         <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -3251,10 +3236,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -3266,7 +3251,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
@@ -3278,10 +3263,10 @@
     </row>
     <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -3290,16 +3275,16 @@
         <v>24</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G31" s="1">
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
@@ -3308,10 +3293,10 @@
     </row>
     <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -3320,10 +3305,10 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G32" s="1">
         <v>0.5</v>
@@ -3335,22 +3320,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G33" s="1">
         <v>3</v>
@@ -3362,10 +3347,10 @@
     </row>
     <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -3374,19 +3359,19 @@
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G34" s="1">
         <v>3</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
@@ -3395,10 +3380,10 @@
     </row>
     <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -3407,16 +3392,16 @@
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G35" s="1">
         <v>2</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
@@ -3425,10 +3410,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -3437,10 +3422,10 @@
         <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G36" s="1">
         <v>3</v>
@@ -3452,22 +3437,22 @@
     </row>
     <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G37" s="1">
         <v>3</v>
@@ -3479,10 +3464,10 @@
     </row>
     <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -3491,10 +3476,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
@@ -3506,10 +3491,10 @@
     </row>
     <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -3518,19 +3503,19 @@
         <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G39" s="1">
         <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
@@ -3539,10 +3524,10 @@
     </row>
     <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -3551,16 +3536,16 @@
         <v>20</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G40" s="1">
         <v>3</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
@@ -3569,10 +3554,10 @@
     </row>
     <row r="41" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -3581,16 +3566,16 @@
         <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G41" s="1">
         <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
@@ -3599,10 +3584,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -3611,10 +3596,10 @@
         <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G42" s="1">
         <v>3</v>
@@ -3626,10 +3611,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -3638,10 +3623,10 @@
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1">
         <v>3</v>
@@ -3653,10 +3638,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -3665,10 +3650,10 @@
         <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G44" s="1">
         <v>12</v>
